--- a/pmeasurement/rentas.xlsx
+++ b/pmeasurement/rentas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\pmeasurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7982F6AD-A8F6-4393-94EC-0189B0FC58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E27A2E9-7577-4DD5-AB75-0DD141760F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CD3D8400-2F26-494E-8F6E-D4C5F66E35BE}"/>
+    <workbookView xWindow="-20520" yWindow="3870" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{CD3D8400-2F26-494E-8F6E-D4C5F66E35BE}"/>
   </bookViews>
   <sheets>
     <sheet name="AL35D" sheetId="7" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="81">
   <si>
     <t>#</t>
   </si>
@@ -275,23 +275,23 @@
     <t xml:space="preserve">9,25% </t>
   </si>
   <si>
+    <t xml:space="preserve">2,50% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,00% </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,00% </t>
+  </si>
+  <si>
     <t xml:space="preserve">9,50% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,50% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,00% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,00% </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +333,23 @@
       <color rgb="FF212529"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF343A40"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -369,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,6 +416,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -717,16 +755,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3CEED-8A96-427F-A57F-85A02624E216}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -749,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -772,7 +810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -795,7 +833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -818,7 +856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -841,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -864,7 +902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -887,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -910,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -933,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -956,7 +994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -979,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1002,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1025,7 +1063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1048,7 +1086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1071,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1094,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1117,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1140,7 +1178,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1163,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1186,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1209,7 +1247,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1232,7 +1270,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1255,7 +1293,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1278,7 +1316,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1301,7 +1339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1324,7 +1362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1347,7 +1385,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1370,7 +1408,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1393,7 +1431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1416,7 +1454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1438,13 +1476,13 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1490,7 +1528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -1513,7 +1551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -1536,7 +1574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1559,7 +1597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -1582,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -1605,7 +1643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -1628,7 +1666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -1651,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -1674,7 +1712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1697,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -1720,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -1743,7 +1781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -1766,7 +1804,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -1789,7 +1827,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -1812,7 +1850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -1835,7 +1873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1858,7 +1896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1881,7 +1919,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1904,7 +1942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1927,7 +1965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1950,7 +1988,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1973,7 +2011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1996,7 +2034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -2019,7 +2057,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2042,7 +2080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -2065,7 +2103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -2088,7 +2126,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2111,7 +2149,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -2134,7 +2172,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -2157,7 +2195,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2180,7 +2218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -2203,7 +2241,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>33</v>
       </c>
@@ -2226,7 +2264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
         <v>34</v>
       </c>
@@ -2262,14 +2300,14 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2292,7 +2330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -2315,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2338,7 +2376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2361,7 +2399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2384,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2407,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2430,7 +2468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2453,7 +2491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2476,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2499,7 +2537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -2522,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2545,7 +2583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2568,7 +2606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2591,7 +2629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2614,7 +2652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -2637,7 +2675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -2660,7 +2698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -2683,7 +2721,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -2719,13 +2757,13 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2771,7 +2809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2794,7 +2832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2817,7 +2855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2840,7 +2878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2863,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2886,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2909,7 +2947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -2932,7 +2970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -2955,7 +2993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -2978,7 +3016,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3001,7 +3039,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3024,7 +3062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3047,7 +3085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3070,7 +3108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3093,7 +3131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3116,7 +3154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -3139,7 +3177,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -3162,7 +3200,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -3198,14 +3236,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3228,7 +3266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -3251,7 +3289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -3274,7 +3312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -3297,7 +3335,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -3320,7 +3358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -3343,7 +3381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -3366,7 +3404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -3389,7 +3427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3412,7 +3450,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -3435,7 +3473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -3458,7 +3496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -3481,7 +3519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -3504,7 +3542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -3527,7 +3565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -3550,7 +3588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -3573,7 +3611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -3596,7 +3634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -3610,363 +3648,367 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72710975-4AE5-45B4-96B9-10E58243E67C}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="13">
         <v>45675</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="13">
         <v>45677</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+      <c r="D2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="15">
         <v>45856</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="15">
         <v>45856</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="D3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="13">
         <v>46040</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="13">
         <v>46041</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="D4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="13">
         <v>46221</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="13">
         <v>46223</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="13">
         <v>46405</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="13">
         <v>46405</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="D6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="13">
         <v>46586</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="13">
         <v>46587</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="D7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
         <v>46770</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="13">
         <v>46770</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="D8" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
         <v>46952</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="13">
         <v>46952</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="D9" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="13">
         <v>47136</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="13">
         <v>47136</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="D10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="13">
         <v>47317</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="13">
         <v>47317</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="13">
         <v>47501</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="13">
         <v>47501</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="13">
         <v>47682</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="13">
         <v>47682</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="13">
         <v>47866</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="13">
         <v>47868</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="13">
         <v>48047</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="13">
         <v>48047</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
+      <c r="D15" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="12" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3978,15 +4020,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -4009,7 +4051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4020,7 +4062,7 @@
         <v>44377</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -4032,7 +4074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4043,7 +4085,7 @@
         <v>44560</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -4055,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4066,7 +4108,7 @@
         <v>44742</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -4078,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4089,7 +4131,7 @@
         <v>44925</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -4101,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4112,7 +4154,7 @@
         <v>45107</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -4124,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4135,7 +4177,7 @@
         <v>45293</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -4147,7 +4189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4158,7 +4200,7 @@
         <v>45474</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -4170,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4181,7 +4223,7 @@
         <v>45656</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -4193,7 +4235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4204,7 +4246,7 @@
         <v>45838</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -4216,7 +4258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4227,7 +4269,7 @@
         <v>46021</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>7</v>
@@ -4239,7 +4281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4250,7 +4292,7 @@
         <v>46203</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -4262,7 +4304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -4273,7 +4315,7 @@
         <v>46386</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -4285,7 +4327,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4296,7 +4338,7 @@
         <v>46568</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -4308,7 +4350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4319,7 +4361,7 @@
         <v>46751</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -4331,7 +4373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4342,7 +4384,7 @@
         <v>46934</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -4354,7 +4396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4365,7 +4407,7 @@
         <v>47120</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -4377,7 +4419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4388,7 +4430,7 @@
         <v>47301</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -4411,13 +4453,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4440,7 +4482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4463,7 +4505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4486,7 +4528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -4509,7 +4551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4532,7 +4574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -4555,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4578,7 +4620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4614,13 +4656,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -4643,7 +4685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -4654,7 +4696,7 @@
         <v>45537</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>7</v>
@@ -4666,7 +4708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -4677,7 +4719,7 @@
         <v>45628</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>7</v>
@@ -4689,7 +4731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -4700,7 +4742,7 @@
         <v>45716</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>7</v>
@@ -4712,7 +4754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -4723,7 +4765,7 @@
         <v>45810</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>7</v>
@@ -4735,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -4746,7 +4788,7 @@
         <v>45901</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>7</v>
@@ -4758,7 +4800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -4769,7 +4811,7 @@
         <v>45992</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>7</v>
@@ -4781,7 +4823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -4792,7 +4834,7 @@
         <v>46083</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>7</v>
@@ -4804,7 +4846,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -4815,7 +4857,7 @@
         <v>46173</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>7</v>

--- a/pmeasurement/rentas.xlsx
+++ b/pmeasurement/rentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\work\repovault\quant\pmeasurement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E27A2E9-7577-4DD5-AB75-0DD141760F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC6E333-7F13-4476-A81E-E806CF0320F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="3870" windowWidth="20640" windowHeight="11040" activeTab="5" xr2:uid="{CD3D8400-2F26-494E-8F6E-D4C5F66E35BE}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="8">
   <si>
     <t>#</t>
   </si>
@@ -65,233 +65,17 @@
     <t>Residual</t>
   </si>
   <si>
-    <t>0,00%</t>
-  </si>
-  <si>
-    <t>100,00%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>28,60%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
     <t>Pago</t>
-  </si>
-  <si>
-    <t>33,00%</t>
-  </si>
-  <si>
-    <t>67,00%</t>
-  </si>
-  <si>
-    <t>34,00%</t>
-  </si>
-  <si>
-    <t>50,00%</t>
-  </si>
-  <si>
-    <t>4,00%</t>
-  </si>
-  <si>
-    <t>96,00%</t>
-  </si>
-  <si>
-    <t>8,00%</t>
-  </si>
-  <si>
-    <t>88,00%</t>
-  </si>
-  <si>
-    <t>80,00%</t>
-  </si>
-  <si>
-    <t>72,00%</t>
-  </si>
-  <si>
-    <t>64,00%</t>
-  </si>
-  <si>
-    <t>56,00%</t>
-  </si>
-  <si>
-    <t>48,00%</t>
-  </si>
-  <si>
-    <t>40,00%</t>
-  </si>
-  <si>
-    <t>32,00%</t>
-  </si>
-  <si>
-    <t>24,00%</t>
-  </si>
-  <si>
-    <t>16,00%</t>
-  </si>
-  <si>
-    <t>10,00%</t>
-  </si>
-  <si>
-    <t>90,00%</t>
-  </si>
-  <si>
-    <t>70,00%</t>
-  </si>
-  <si>
-    <t>60,00%</t>
-  </si>
-  <si>
-    <t>30,00%</t>
-  </si>
-  <si>
-    <t>20,00%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>77,30%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>54,60%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>31,90%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,20%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,13% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,13% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,50% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,63% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,13% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,75% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5,00% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,00% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,88% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,25% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8,25% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,50% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,75% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,75% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,25% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,50% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,00% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3,00% </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9,50% </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +134,13 @@
       <color rgb="FF212529"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -383,10 +174,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,14 +225,12 @@
     <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF3CEED-8A96-427F-A57F-85A02624E216}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="G31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
@@ -797,17 +587,17 @@
       <c r="C2" s="8">
         <v>44389</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
+      <c r="D2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -820,17 +610,17 @@
       <c r="C3" s="8">
         <v>44571</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -843,17 +633,17 @@
       <c r="C4" s="8">
         <v>44753</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -866,17 +656,17 @@
       <c r="C5" s="8">
         <v>44935</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -889,17 +679,17 @@
       <c r="C6" s="8">
         <v>45117</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
+      <c r="D6" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -912,17 +702,17 @@
       <c r="C7" s="8">
         <v>45300</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
+      <c r="D7" s="7">
+        <v>3.63</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -935,17 +725,17 @@
       <c r="C8" s="8">
         <v>45483</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
+      <c r="D8" s="7">
+        <v>3.63</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -958,17 +748,17 @@
       <c r="C9" s="8">
         <v>45666</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
+      <c r="D9" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -981,17 +771,17 @@
       <c r="C10" s="8">
         <v>45848</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
+      <c r="D10" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1004,17 +794,17 @@
       <c r="C11" s="10">
         <v>46031</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
+      <c r="D11" s="9">
+        <v>4.13</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1027,17 +817,17 @@
       <c r="C12" s="8">
         <v>46213</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
+      <c r="D12" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1050,17 +840,17 @@
       <c r="C13" s="8">
         <v>46398</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
+      <c r="D13" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1073,17 +863,17 @@
       <c r="C14" s="8">
         <v>46580</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>8</v>
+      <c r="D14" s="7">
+        <v>4.13</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1096,17 +886,17 @@
       <c r="C15" s="8">
         <v>46762</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>8</v>
+      <c r="D15" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1119,17 +909,17 @@
       <c r="C16" s="8">
         <v>46944</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>8</v>
+      <c r="D16" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1142,17 +932,17 @@
       <c r="C17" s="8">
         <v>47127</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>8</v>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1165,17 +955,17 @@
       <c r="C18" s="8">
         <v>47309</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>8</v>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1188,17 +978,17 @@
       <c r="C19" s="8">
         <v>47492</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>8</v>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1211,17 +1001,17 @@
       <c r="C20" s="8">
         <v>47674</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>8</v>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1234,17 +1024,17 @@
       <c r="C21" s="8">
         <v>47857</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>35</v>
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>10</v>
+      </c>
+      <c r="G21" s="7">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1257,17 +1047,17 @@
       <c r="C22" s="8">
         <v>48039</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>25</v>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1280,17 +1070,17 @@
       <c r="C23" s="8">
         <v>48222</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>36</v>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>10</v>
+      </c>
+      <c r="G23" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1303,17 +1093,17 @@
       <c r="C24" s="8">
         <v>48407</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>37</v>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>10</v>
+      </c>
+      <c r="G24" s="7">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1326,17 +1116,17 @@
       <c r="C25" s="8">
         <v>48589</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>20</v>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>10</v>
+      </c>
+      <c r="G25" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1349,17 +1139,17 @@
       <c r="C26" s="8">
         <v>48771</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>30</v>
+      <c r="D26" s="7">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>10</v>
+      </c>
+      <c r="G26" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1372,17 +1162,17 @@
       <c r="C27" s="8">
         <v>48953</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>38</v>
+      <c r="D27" s="7">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1395,17 +1185,17 @@
       <c r="C28" s="8">
         <v>49135</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>39</v>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7">
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1418,17 +1208,17 @@
       <c r="C29" s="8">
         <v>49318</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>34</v>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1441,17 +1231,17 @@
       <c r="C30" s="8">
         <v>49500</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>7</v>
+      <c r="D30" s="7">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>10</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1473,7 +1263,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,17 +1305,17 @@
       <c r="C2" s="8">
         <v>44389</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
+      <c r="D2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1538,17 +1328,17 @@
       <c r="C3" s="8">
         <v>44571</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1561,17 +1351,17 @@
       <c r="C4" s="8">
         <v>44753</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1584,17 +1374,17 @@
       <c r="C5" s="8">
         <v>44935</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>3.88</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1607,17 +1397,17 @@
       <c r="C6" s="8">
         <v>45117</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
+      <c r="D6" s="7">
+        <v>3.88</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1630,17 +1420,17 @@
       <c r="C7" s="8">
         <v>45300</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
+      <c r="D7" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1653,17 +1443,17 @@
       <c r="C8" s="8">
         <v>45483</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
+      <c r="D8" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1676,17 +1466,17 @@
       <c r="C9" s="8">
         <v>45666</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
+      <c r="D9" s="7">
+        <v>5</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1699,17 +1489,17 @@
       <c r="C10" s="8">
         <v>45848</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
+      <c r="D10" s="7">
+        <v>5</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1722,17 +1512,17 @@
       <c r="C11" s="10">
         <v>46031</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>8</v>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1745,17 +1535,17 @@
       <c r="C12" s="8">
         <v>46213</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
+      <c r="D12" s="7">
+        <v>5</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1768,17 +1558,17 @@
       <c r="C13" s="8">
         <v>46398</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
+      <c r="D13" s="7">
+        <v>5</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1791,17 +1581,17 @@
       <c r="C14" s="8">
         <v>46580</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>41</v>
+      <c r="D14" s="7">
+        <v>5</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G14" s="7">
+        <v>95.46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1814,17 +1604,17 @@
       <c r="C15" s="8">
         <v>46762</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>42</v>
+      <c r="D15" s="7">
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G15" s="7">
+        <v>90.92</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1837,17 +1627,17 @@
       <c r="C16" s="8">
         <v>46944</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>43</v>
+      <c r="D16" s="7">
+        <v>5</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G16" s="7">
+        <v>86.38</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1860,17 +1650,17 @@
       <c r="C17" s="8">
         <v>47127</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>44</v>
+      <c r="D17" s="7">
+        <v>5</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G17" s="7">
+        <v>81.84</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1883,17 +1673,17 @@
       <c r="C18" s="8">
         <v>47309</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>45</v>
+      <c r="D18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G18" s="7">
+        <v>77.3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1906,17 +1696,17 @@
       <c r="C19" s="8">
         <v>47492</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G19" s="7">
+        <v>72.760000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1929,17 +1719,17 @@
       <c r="C20" s="8">
         <v>47674</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
+      <c r="D20" s="7">
+        <v>5</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G20" s="7">
+        <v>68.22</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1952,17 +1742,17 @@
       <c r="C21" s="8">
         <v>47857</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>48</v>
+      <c r="D21" s="7">
+        <v>5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G21" s="7">
+        <v>63.68</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1975,17 +1765,17 @@
       <c r="C22" s="8">
         <v>48039</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>49</v>
+      <c r="D22" s="7">
+        <v>5</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G22" s="7">
+        <v>59.14</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1998,17 +1788,17 @@
       <c r="C23" s="8">
         <v>48222</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>50</v>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G23" s="7">
+        <v>54.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2021,17 +1811,17 @@
       <c r="C24" s="8">
         <v>48407</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
+      <c r="D24" s="7">
+        <v>5</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G24" s="7">
+        <v>50.06</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2044,17 +1834,17 @@
       <c r="C25" s="8">
         <v>48589</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>52</v>
+      <c r="D25" s="7">
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G25" s="7">
+        <v>45.52</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2067,17 +1857,17 @@
       <c r="C26" s="8">
         <v>48771</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>53</v>
+      <c r="D26" s="7">
+        <v>5</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G26" s="7">
+        <v>40.98</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2090,17 +1880,17 @@
       <c r="C27" s="8">
         <v>48953</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
+      <c r="D27" s="7">
+        <v>5</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G27" s="7">
+        <v>36.44</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2113,17 +1903,17 @@
       <c r="C28" s="8">
         <v>49135</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>55</v>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G28" s="7">
+        <v>31.9</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2136,17 +1926,17 @@
       <c r="C29" s="8">
         <v>49318</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>56</v>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G29" s="7">
+        <v>27.36</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2159,17 +1949,17 @@
       <c r="C30" s="8">
         <v>49500</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>57</v>
+      <c r="D30" s="7">
+        <v>5</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G30" s="7">
+        <v>22.82</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2182,17 +1972,17 @@
       <c r="C31" s="8">
         <v>49683</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>58</v>
+      <c r="D31" s="7">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G31" s="7">
+        <v>18.28</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2205,17 +1995,17 @@
       <c r="C32" s="8">
         <v>49866</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>59</v>
+      <c r="D32" s="7">
+        <v>5</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G32" s="7">
+        <v>13.74</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2228,17 +2018,17 @@
       <c r="C33" s="8">
         <v>50049</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
+      <c r="D33" s="7">
+        <v>5</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G33" s="7">
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2251,17 +2041,17 @@
       <c r="C34" s="8">
         <v>50231</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>61</v>
+      <c r="D34" s="7">
+        <v>5</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>4.54</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4.66</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2274,17 +2064,17 @@
       <c r="C35" s="8">
         <v>50416</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>7</v>
+      <c r="D35" s="7">
+        <v>5</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4.66</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2340,17 +2130,17 @@
       <c r="C2" s="10">
         <v>45855</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
+      <c r="D2" s="9">
+        <v>8.25</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2363,17 +2153,17 @@
       <c r="C3" s="8">
         <v>46041</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2386,17 +2176,17 @@
       <c r="C4" s="8">
         <v>46220</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2409,17 +2199,17 @@
       <c r="C5" s="8">
         <v>46405</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2432,17 +2222,17 @@
       <c r="C6" s="8">
         <v>46587</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
+      <c r="D6" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2455,17 +2245,17 @@
       <c r="C7" s="8">
         <v>46769</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
+      <c r="D7" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2478,17 +2268,17 @@
       <c r="C8" s="8">
         <v>46951</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
+      <c r="D8" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2501,17 +2291,17 @@
       <c r="C9" s="8">
         <v>47135</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
+      <c r="D9" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2524,17 +2314,17 @@
       <c r="C10" s="8">
         <v>47316</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
+      <c r="D10" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2547,17 +2337,17 @@
       <c r="C11" s="8">
         <v>47500</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>8</v>
+      <c r="D11" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2570,17 +2360,17 @@
       <c r="C12" s="8">
         <v>47681</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
+      <c r="D12" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2593,17 +2383,17 @@
       <c r="C13" s="8">
         <v>47865</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
+      <c r="D13" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2616,17 +2406,17 @@
       <c r="C14" s="8">
         <v>48046</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>8</v>
+      <c r="D14" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2639,17 +2429,17 @@
       <c r="C15" s="8">
         <v>48232</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>36</v>
+      <c r="D15" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,17 +2452,17 @@
       <c r="C16" s="8">
         <v>48414</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>36</v>
+      <c r="D16" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2685,17 +2475,17 @@
       <c r="C17" s="8">
         <v>48596</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="D17" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
         <v>30</v>
+      </c>
+      <c r="G17" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2708,17 +2498,17 @@
       <c r="C18" s="8">
         <v>48778</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
+      <c r="D18" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2731,17 +2521,17 @@
       <c r="C19" s="8">
         <v>48961</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>7</v>
+      <c r="D19" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>40</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2544,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K12" sqref="H10:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2796,17 +2586,17 @@
       <c r="C2" s="8">
         <v>44389</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
+      <c r="D2" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2819,17 +2609,17 @@
       <c r="C3" s="8">
         <v>44571</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2842,17 +2632,17 @@
       <c r="C4" s="8">
         <v>44753</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2865,17 +2655,17 @@
       <c r="C5" s="8">
         <v>44935</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2888,17 +2678,17 @@
       <c r="C6" s="8">
         <v>45117</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
+      <c r="D6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2911,17 +2701,17 @@
       <c r="C7" s="8">
         <v>45300</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
+      <c r="D7" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2934,17 +2724,17 @@
       <c r="C8" s="8">
         <v>45483</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>22</v>
+      <c r="D8" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2957,17 +2747,17 @@
       <c r="C9" s="8">
         <v>45666</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>24</v>
+      <c r="D9" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2980,17 +2770,17 @@
       <c r="C10" s="8">
         <v>45848</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>25</v>
+      <c r="D10" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3003,17 +2793,17 @@
       <c r="C11" s="10">
         <v>46031</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>26</v>
+      <c r="D11" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>8</v>
+      </c>
+      <c r="G11" s="9">
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3026,17 +2816,17 @@
       <c r="C12" s="8">
         <v>46213</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>27</v>
+      <c r="D12" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7">
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3049,17 +2839,17 @@
       <c r="C13" s="8">
         <v>46398</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
+      <c r="D13" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3072,17 +2862,17 @@
       <c r="C14" s="8">
         <v>46580</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>29</v>
+      <c r="D14" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3095,17 +2885,17 @@
       <c r="C15" s="8">
         <v>46762</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
+      <c r="D15" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>8</v>
+      </c>
+      <c r="G15" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3118,17 +2908,17 @@
       <c r="C16" s="8">
         <v>46944</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>31</v>
+      <c r="D16" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3141,17 +2931,17 @@
       <c r="C17" s="8">
         <v>47127</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>32</v>
+      <c r="D17" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>8</v>
+      </c>
+      <c r="G17" s="7">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3164,17 +2954,17 @@
       <c r="C18" s="8">
         <v>47309</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
+      <c r="D18" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8</v>
+      </c>
+      <c r="G18" s="7">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3187,17 +2977,17 @@
       <c r="C19" s="8">
         <v>47492</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
+      <c r="D19" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>8</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3210,17 +3000,17 @@
       <c r="C20" s="8">
         <v>47674</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>7</v>
+      <c r="D20" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>8</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3276,17 +3066,17 @@
       <c r="C2" s="10">
         <v>45989</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>8</v>
+      <c r="D2" s="9">
+        <v>9.25</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3299,17 +3089,17 @@
       <c r="C3" s="8">
         <v>46170</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3322,17 +3112,17 @@
       <c r="C4" s="8">
         <v>46356</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3345,17 +3135,17 @@
       <c r="C5" s="8">
         <v>46535</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3368,17 +3158,17 @@
       <c r="C6" s="8">
         <v>46720</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
+      <c r="D6" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3391,17 +3181,17 @@
       <c r="C7" s="8">
         <v>46902</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
+      <c r="D7" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3414,17 +3204,17 @@
       <c r="C8" s="8">
         <v>47085</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
+      <c r="D8" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3437,17 +3227,17 @@
       <c r="C9" s="8">
         <v>47266</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
+      <c r="D9" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3460,17 +3250,17 @@
       <c r="C10" s="8">
         <v>47450</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
+      <c r="D10" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3483,17 +3273,17 @@
       <c r="C11" s="8">
         <v>47631</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>8</v>
+      <c r="D11" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3506,17 +3296,17 @@
       <c r="C12" s="8">
         <v>47815</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
+      <c r="D12" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3529,17 +3319,17 @@
       <c r="C13" s="8">
         <v>47996</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
+      <c r="D13" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3552,17 +3342,17 @@
       <c r="C14" s="8">
         <v>48180</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>8</v>
+      <c r="D14" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3575,17 +3365,17 @@
       <c r="C15" s="8">
         <v>48362</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>20</v>
+      <c r="D15" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3598,17 +3388,17 @@
       <c r="C16" s="8">
         <v>48547</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>20</v>
+      <c r="D16" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3621,17 +3411,17 @@
       <c r="C17" s="8">
         <v>48729</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>7</v>
+      <c r="D17" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>50</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3651,13 +3441,14 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3693,17 +3484,17 @@
       <c r="C2" s="13">
         <v>45677</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12">
+        <v>20</v>
+      </c>
+      <c r="G2" s="12">
         <v>80</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="17">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -3714,21 +3505,21 @@
         <v>45856</v>
       </c>
       <c r="C3" s="15">
-        <v>45856</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="10"/>
+        <v>45706</v>
+      </c>
+      <c r="D3" s="14">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12">
+        <v>60</v>
+      </c>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
@@ -3740,17 +3531,17 @@
       <c r="C4" s="13">
         <v>46041</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="17">
-        <v>0</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>8</v>
+      <c r="D4" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="12">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3763,17 +3554,17 @@
       <c r="C5" s="13">
         <v>46223</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>8</v>
+      <c r="D5" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3786,17 +3577,17 @@
       <c r="C6" s="13">
         <v>46405</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>8</v>
+      <c r="D6" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3809,17 +3600,17 @@
       <c r="C7" s="13">
         <v>46587</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>8</v>
+      <c r="D7" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
+      <c r="F7" s="12">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3832,17 +3623,17 @@
       <c r="C8" s="13">
         <v>46770</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>8</v>
+      <c r="D8" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3855,17 +3646,17 @@
       <c r="C9" s="13">
         <v>46952</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>8</v>
+      <c r="D9" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3878,17 +3669,17 @@
       <c r="C10" s="13">
         <v>47136</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>8</v>
+      <c r="D10" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3901,17 +3692,17 @@
       <c r="C11" s="13">
         <v>47317</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>18</v>
+      <c r="D11" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>33</v>
+      </c>
+      <c r="G11" s="12">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3924,17 +3715,17 @@
       <c r="C12" s="13">
         <v>47501</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>18</v>
+      <c r="D12" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3947,17 +3738,17 @@
       <c r="C13" s="13">
         <v>47682</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>19</v>
+      <c r="D13" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3970,17 +3761,17 @@
       <c r="C14" s="13">
         <v>47868</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>19</v>
+      <c r="D14" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3993,17 +3784,17 @@
       <c r="C15" s="13">
         <v>48047</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>7</v>
+      <c r="D15" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>34</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4030,7 +3821,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4061,17 +3852,17 @@
       <c r="C2" s="3">
         <v>44377</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
+      <c r="D2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4084,17 +3875,17 @@
       <c r="C3" s="3">
         <v>44560</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
+      <c r="D3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4107,17 +3898,17 @@
       <c r="C4" s="3">
         <v>44742</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="D4" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4130,17 +3921,17 @@
       <c r="C5" s="3">
         <v>44925</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>8</v>
+      <c r="D5" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4153,17 +3944,17 @@
       <c r="C6" s="3">
         <v>45107</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4176,17 +3967,17 @@
       <c r="C7" s="3">
         <v>45293</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
+      <c r="D7" s="2">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4199,17 +3990,17 @@
       <c r="C8" s="3">
         <v>45474</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4222,17 +4013,17 @@
       <c r="C9" s="3">
         <v>45656</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4245,17 +4036,17 @@
       <c r="C10" s="3">
         <v>45838</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4268,17 +4059,17 @@
       <c r="C11" s="5">
         <v>46021</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>8</v>
+      <c r="D11" s="4">
+        <v>9</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4291,17 +4082,17 @@
       <c r="C12" s="3">
         <v>46203</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="2">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="G12" s="2">
+        <v>85.72</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4314,17 +4105,17 @@
       <c r="C13" s="3">
         <v>46386</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="2">
         <v>9</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="G13" s="2">
+        <v>71.44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4337,17 +4128,17 @@
       <c r="C14" s="3">
         <v>46568</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="2">
         <v>9</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>12</v>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="G14" s="2">
+        <v>57.16</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4360,17 +4151,17 @@
       <c r="C15" s="3">
         <v>46751</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="2">
         <v>9</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="G15" s="2">
+        <v>42.88</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4383,17 +4174,17 @@
       <c r="C16" s="3">
         <v>46934</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="2">
         <v>9</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>14</v>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="G16" s="2">
+        <v>28.6</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4406,17 +4197,17 @@
       <c r="C17" s="3">
         <v>47120</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="2">
         <v>9</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>14.28</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14.32</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4429,14 +4220,14 @@
       <c r="C18" s="3">
         <v>47301</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>15</v>
+      <c r="D18" s="2">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>14.32</v>
       </c>
     </row>
   </sheetData>
@@ -4492,17 +4283,17 @@
       <c r="C2" s="8">
         <v>45596</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4515,17 +4306,17 @@
       <c r="C3" s="8">
         <v>45777</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4538,17 +4329,17 @@
       <c r="C4" s="10">
         <v>45961</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>8</v>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4561,17 +4352,17 @@
       <c r="C5" s="8">
         <v>46142</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4584,17 +4375,17 @@
       <c r="C6" s="8">
         <v>46328</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4607,17 +4398,17 @@
       <c r="C7" s="8">
         <v>46507</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>20</v>
+      <c r="D7" s="7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4630,17 +4421,17 @@
       <c r="C8" s="8">
         <v>46691</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>7</v>
+      <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4695,17 +4486,17 @@
       <c r="C2" s="8">
         <v>45537</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4718,17 +4509,17 @@
       <c r="C3" s="8">
         <v>45628</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
+      <c r="D3" s="7">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4741,17 +4532,17 @@
       <c r="C4" s="8">
         <v>45716</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
+      <c r="D4" s="7">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4764,17 +4555,17 @@
       <c r="C5" s="8">
         <v>45810</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
+      <c r="D5" s="7">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4787,17 +4578,17 @@
       <c r="C6" s="10">
         <v>45901</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>8</v>
+      <c r="D6" s="9">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4810,17 +4601,17 @@
       <c r="C7" s="8">
         <v>45992</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>18</v>
+      <c r="D7" s="7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7">
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4833,17 +4624,17 @@
       <c r="C8" s="8">
         <v>46083</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4856,17 +4647,17 @@
       <c r="C9" s="8">
         <v>46173</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>7</v>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
